--- a/Assets/Refactoring/06_Data/Excel/RouteData.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/RouteData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469B708A-423D-401E-841B-4A5740E2F52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ECF73A-162F-4E36-A43B-7825056B3A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12045" yWindow="6900" windowWidth="21810" windowHeight="21390" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="34080" yWindow="1440" windowWidth="21810" windowHeight="21390" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Route</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,1,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,7 +418,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -445,8 +449,8 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>2310</v>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E2" s="2"/>
     </row>

--- a/Assets/Refactoring/06_Data/Excel/RouteData.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/RouteData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ECF73A-162F-4E36-A43B-7825056B3A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419FEB50-E12D-494C-A84F-BC50DE6AC24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34080" yWindow="1440" windowWidth="21810" windowHeight="21390" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="11145" yWindow="8775" windowWidth="21810" windowHeight="13485" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,3,1,0</t>
+    <t>3,4,5,2,1,0&amp;3,4,1,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,12 +418,13 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D6" sqref="D6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
